--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,7 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二版数据库设计以及不确定需求沟通</t>
+    <t>业务功能梳理，数据库设计以及不确定需求沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务功能梳理，数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,11 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,9 +460,36 @@
       </c>
       <c r="D57" s="3"/>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>43285.666666666664</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43285.708333333336</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>43285.854166666664</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43285.916666666664</v>
+      </c>
+      <c r="C59">
+        <v>1.5</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>业务功能梳理，数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页逻辑梳理，数据库结构设计调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,11 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,6 +490,20 @@
       </c>
       <c r="D59" s="3"/>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>43288.395833333336</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43288.5</v>
+      </c>
+      <c r="C60">
+        <v>2.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D56:D57"/>

--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>首页逻辑梳理，数据库结构设计调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页逻辑梳理确认，首页数据服务接口开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +99,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -103,6 +107,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -409,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
@@ -448,7 +455,7 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -462,7 +469,7 @@
       <c r="C57">
         <v>1.5</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -474,7 +481,7 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -488,7 +495,7 @@
       <c r="C59">
         <v>1.5</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -502,6 +509,20 @@
       </c>
       <c r="D60" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>43288.854166666664</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43288.958333333336</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,7 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页逻辑梳理确认，首页数据服务接口开发</t>
+    <t>根据广告ID获取广告商品明细服务开发、测试，接口文档说明编写，发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页红点服务开发、测试，接口文档说明编写，新版服务环境部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页逻辑梳理确认，首页数据服务接口开发、测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +115,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -416,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,7 +442,7 @@
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -455,7 +469,7 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -469,7 +483,7 @@
       <c r="C57">
         <v>1.5</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -481,7 +495,7 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -495,7 +509,7 @@
       <c r="C59">
         <v>1.5</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -522,6 +536,34 @@
         <v>2.5</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>43289.416666666664</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43289.5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>43289.833333333336</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43289.895833333336</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -1,85 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长（小时）</t>
   </si>
   <si>
     <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长（小时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务功能梳理，数据库设计以及不确定需求沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务功能梳理，数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页逻辑梳理，数据库结构设计调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页逻辑梳理确认，首页数据服务接口开发、测试</t>
+  </si>
+  <si>
+    <t>获取首页红点服务开发、测试，接口文档说明编写，新版服务环境部署</t>
   </si>
   <si>
     <t>根据广告ID获取广告商品明细服务开发、测试，接口文档说明编写，发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取首页红点服务开发、测试，接口文档说明编写，新版服务环境部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页逻辑梳理确认，首页数据服务接口开发、测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>广告领取现金红包、查询新版分类服务开发、测试，接口文档说明编写，发布</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,12 +230,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,13 +429,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,23 +687,58 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -424,20 +1029,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -445,7 +1051,7 @@
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="21.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,15 +1059,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43284.645833333336</v>
+        <v>43284.6458333333</v>
       </c>
       <c r="B56" s="2">
         <v>43284.6875</v>
@@ -469,11 +1075,11 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43284.875</v>
       </c>
@@ -483,37 +1089,35 @@
       <c r="C57">
         <v>1.5</v>
       </c>
-      <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43285.666666666664</v>
+        <v>43285.6666666667</v>
       </c>
       <c r="B58" s="2">
-        <v>43285.708333333336</v>
+        <v>43285.7083333333</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43285.854166666664</v>
+        <v>43285.8541666667</v>
       </c>
       <c r="B59" s="2">
-        <v>43285.916666666664</v>
+        <v>43285.9166666667</v>
       </c>
       <c r="C59">
         <v>1.5</v>
       </c>
-      <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43288.395833333336</v>
+        <v>43288.3958333333</v>
       </c>
       <c r="B60" s="2">
         <v>43288.5</v>
@@ -525,46 +1129,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43288.854166666664</v>
+        <v>43288.8541666667</v>
       </c>
       <c r="B61" s="2">
-        <v>43288.958333333336</v>
-      </c>
-      <c r="C61" s="3">
+        <v>43288.9583333333</v>
+      </c>
+      <c r="C61">
         <v>2.5</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
+      <c r="D61" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43289.416666666664</v>
+        <v>43289.4166666667</v>
       </c>
       <c r="B62" s="2">
         <v>43289.5</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" customFormat="1" spans="1:4">
       <c r="A63" s="2">
-        <v>43289.833333333336</v>
+        <v>43289.8333333333</v>
       </c>
       <c r="B63" s="2">
-        <v>43289.895833333336</v>
-      </c>
-      <c r="C63" s="5">
+        <v>43289.8958333333</v>
+      </c>
+      <c r="C63">
         <v>1.5</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>7</v>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64" s="2">
+        <v>43290.5833333333</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43290.7083333333</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -572,33 +1190,39 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D58:D59"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
+++ b/MyPoint/2018-07-02 Point改版/2018-07-03 开发工时.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>开始时间</t>
   </si>
@@ -52,14 +52,22 @@
   </si>
   <si>
     <t>首页新增热卖推荐类型，逻辑沟通，数据结构，原首页服务逻辑调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增推荐好友明细、领取优惠劵API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +76,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,12 +229,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,13 +428,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -112,14 +686,58 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -410,20 +1028,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -431,7 +1050,7 @@
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="21.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,9 +1064,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43284.645833333299</v>
+        <v>43284.6458333333</v>
       </c>
       <c r="B2" s="2">
         <v>43284.6875</v>
@@ -455,11 +1074,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43284.875</v>
       </c>
@@ -469,37 +1088,35 @@
       <c r="C3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43285.666666666701</v>
+        <v>43285.6666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>43285.708333333299</v>
+        <v>43285.7083333333</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43285.854166666701</v>
+        <v>43285.8541666667</v>
       </c>
       <c r="B5" s="2">
-        <v>43285.916666666701</v>
+        <v>43285.9166666667</v>
       </c>
       <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43288.395833333299</v>
+        <v>43288.3958333333</v>
       </c>
       <c r="B6" s="2">
         <v>43288.5</v>
@@ -511,12 +1128,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43288.854166666701</v>
+        <v>43288.8541666667</v>
       </c>
       <c r="B7" s="2">
-        <v>43288.958333333299</v>
+        <v>43288.9583333333</v>
       </c>
       <c r="C7">
         <v>2.5</v>
@@ -525,9 +1142,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43289.416666666701</v>
+        <v>43289.4166666667</v>
       </c>
       <c r="B8" s="2">
         <v>43289.5</v>
@@ -539,12 +1156,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43289.833333333299</v>
+        <v>43289.8333333333</v>
       </c>
       <c r="B9" s="2">
-        <v>43289.895833333299</v>
+        <v>43289.8958333333</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -553,12 +1170,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43290.583333333299</v>
+        <v>43290.5833333333</v>
       </c>
       <c r="B10" s="2">
-        <v>43290.708333333299</v>
+        <v>43290.7083333333</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -567,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>43290.875</v>
       </c>
@@ -579,6 +1196,20 @@
       </c>
       <c r="D11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>43291.5625</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43291.6666666667</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -586,33 +1217,39 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>